--- a/Data/Temp/Status Tracker.xlsx
+++ b/Data/Temp/Status Tracker.xlsx
@@ -5,12 +5,12 @@
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Box\Personal_603214\External\RAJAT\Development\TSI-GF\Status Tracker\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\606395\Documents\UiPath\TEL_IntelProcess\Data\Temp\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536AD9FE-B8F0-4DA6-85B6-80885DFBB20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751FC0CE-3AF7-4A96-B178-903EE9C393F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <x:si>
     <x:t>PO Number</x:t>
   </x:si>
@@ -145,7 +145,7 @@
     <x:t>Success</x:t>
   </x:si>
   <x:si>
-    <x:t>09/03/2023 18:51:00</x:t>
+    <x:t>10/03/2023 16:35:06</x:t>
   </x:si>
   <x:si>
     <x:t>371003090066</x:t>
@@ -157,13 +157,19 @@
     <x:t>RS00521405 (S00906/EOXC703)</x:t>
   </x:si>
   <x:si>
-    <x:t>09/03/2023 18:51:13</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/03/2023 18:57:20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>09/03/2023 18:57:34</x:t>
+    <x:t>10/03/2023 16:35:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/03/2023 17:21:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/03/2023 17:22:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/03/2023 17:48:18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10/03/2023 17:48:36</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -173,13 +179,19 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="3" x14ac:knownFonts="1">
+  <x:fonts count="4" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
       <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:b/>
+      <x:sz val="9"/>
+      <x:name val="Arial"/>
+      <x:family val="2"/>
     </x:font>
     <x:font>
       <x:b/>
@@ -233,44 +245,104 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="7">
+  <x:cellStyleXfs count="21">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="0" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="0" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="7">
+  <x:cellXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center"/>
       <x:protection locked="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" wrapText="1"/>
+      <x:protection locked="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="0" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -561,433 +633,582 @@
   <x:dimension ref="A1:AA1"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C17" sqref="C17 C17:C17"/>
+      <x:selection activeCell="A3" sqref="A3 A3:A3"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <x:cols>
-    <x:col min="1" max="1" width="24" style="4" customWidth="1"/>
-    <x:col min="2" max="2" width="21.089844" style="4" customWidth="1"/>
-    <x:col min="3" max="3" width="19.269531" style="4" customWidth="1"/>
-    <x:col min="4" max="4" width="16.453125" style="4" customWidth="1"/>
-    <x:col min="5" max="5" width="18.632812" style="4" customWidth="1"/>
-    <x:col min="6" max="6" width="18.542969" style="4" customWidth="1"/>
-    <x:col min="7" max="7" width="28.269531" style="4" customWidth="1"/>
-    <x:col min="8" max="8" width="18.542969" style="4" customWidth="1"/>
-    <x:col min="9" max="9" width="36.453125" style="4" customWidth="1"/>
-    <x:col min="10" max="10" width="25.90625" style="4" customWidth="1"/>
-    <x:col min="11" max="11" width="25" style="4" customWidth="1"/>
-    <x:col min="12" max="12" width="37.179688" style="4" customWidth="1"/>
-    <x:col min="13" max="13" width="32.726562" style="4" customWidth="1"/>
-    <x:col min="14" max="14" width="23.726562" style="4" customWidth="1"/>
-    <x:col min="15" max="15" width="29.632812" style="4" customWidth="1"/>
-    <x:col min="16" max="16" width="19.90625" style="4" customWidth="1"/>
-    <x:col min="17" max="17" width="19.632812" style="4" customWidth="1"/>
-    <x:col min="18" max="18" width="17.726562" style="4" customWidth="1"/>
-    <x:col min="19" max="19" width="20.269531" style="4" customWidth="1"/>
-    <x:col min="20" max="20" width="23.089844" style="4" customWidth="1"/>
-    <x:col min="21" max="21" width="20.542969" style="4" customWidth="1"/>
-    <x:col min="22" max="22" width="16.816406" style="4" customWidth="1"/>
-    <x:col min="23" max="23" width="17.816406" style="4" customWidth="1"/>
-    <x:col min="24" max="24" width="16.363281" style="4" customWidth="1"/>
-    <x:col min="25" max="25" width="14.726562" style="4" customWidth="1"/>
-    <x:col min="26" max="26" width="17.542969" style="4" customWidth="1"/>
-    <x:col min="27" max="27" width="19.089844" style="4" customWidth="1"/>
+    <x:col min="1" max="1" width="24" style="6" customWidth="1"/>
+    <x:col min="2" max="2" width="21.089844" style="6" customWidth="1"/>
+    <x:col min="3" max="3" width="19.269531" style="6" customWidth="1"/>
+    <x:col min="4" max="4" width="16.453125" style="6" customWidth="1"/>
+    <x:col min="5" max="5" width="18.632812" style="6" customWidth="1"/>
+    <x:col min="6" max="6" width="18.542969" style="6" customWidth="1"/>
+    <x:col min="7" max="7" width="28.269531" style="6" customWidth="1"/>
+    <x:col min="8" max="8" width="18.542969" style="6" customWidth="1"/>
+    <x:col min="9" max="9" width="36.453125" style="6" customWidth="1"/>
+    <x:col min="10" max="10" width="25.90625" style="6" customWidth="1"/>
+    <x:col min="11" max="11" width="25" style="6" customWidth="1"/>
+    <x:col min="12" max="12" width="37.179688" style="6" customWidth="1"/>
+    <x:col min="13" max="13" width="32.726562" style="6" customWidth="1"/>
+    <x:col min="14" max="14" width="23.726562" style="6" customWidth="1"/>
+    <x:col min="15" max="15" width="29.632812" style="6" customWidth="1"/>
+    <x:col min="16" max="16" width="19.90625" style="6" customWidth="1"/>
+    <x:col min="17" max="17" width="19.632812" style="6" customWidth="1"/>
+    <x:col min="18" max="18" width="17.726562" style="6" customWidth="1"/>
+    <x:col min="19" max="19" width="20.269531" style="6" customWidth="1"/>
+    <x:col min="20" max="20" width="23.089844" style="6" customWidth="1"/>
+    <x:col min="21" max="21" width="20.542969" style="6" customWidth="1"/>
+    <x:col min="22" max="22" width="16.816406" style="6" customWidth="1"/>
+    <x:col min="23" max="23" width="17.816406" style="6" customWidth="1"/>
+    <x:col min="24" max="24" width="16.363281" style="6" customWidth="1"/>
+    <x:col min="25" max="25" width="15.816406" style="6" customWidth="1"/>
+    <x:col min="26" max="26" width="32.269531" style="9" customWidth="1"/>
+    <x:col min="27" max="27" width="22.816406" style="6" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:27" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <x:c r="A1" s="5" t="s">
+    <x:row r="1" spans="1:27" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <x:c r="A1" s="7" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="B1" s="5" t="s">
+      <x:c r="B1" s="7" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C1" s="5" t="s">
+      <x:c r="C1" s="7" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D1" s="5" t="s">
+      <x:c r="D1" s="7" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E1" s="5" t="s">
+      <x:c r="E1" s="7" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F1" s="5" t="s">
+      <x:c r="F1" s="7" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G1" s="5" t="s">
+      <x:c r="G1" s="7" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="H1" s="5" t="s">
+      <x:c r="H1" s="7" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="I1" s="5" t="s">
+      <x:c r="I1" s="7" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="J1" s="5" t="s">
+      <x:c r="J1" s="7" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="K1" s="5" t="s">
+      <x:c r="K1" s="7" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="L1" s="5" t="s">
+      <x:c r="L1" s="7" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="M1" s="5" t="s">
+      <x:c r="M1" s="7" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="N1" s="5" t="s">
+      <x:c r="N1" s="7" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="O1" s="5" t="s">
+      <x:c r="O1" s="7" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="P1" s="5" t="s">
+      <x:c r="P1" s="7" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="Q1" s="5" t="s">
+      <x:c r="Q1" s="7" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="R1" s="5" t="s">
+      <x:c r="R1" s="7" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="S1" s="5" t="s">
+      <x:c r="S1" s="7" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="T1" s="5" t="s">
+      <x:c r="T1" s="7" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="U1" s="5" t="s">
+      <x:c r="U1" s="7" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="V1" s="5" t="s">
+      <x:c r="V1" s="7" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="W1" s="5" t="s">
+      <x:c r="W1" s="7" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="X1" s="5" t="s">
+      <x:c r="X1" s="7" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="Y1" s="5" t="s">
+      <x:c r="Y1" s="7" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="Z1" s="5" t="s">
+      <x:c r="Z1" s="8" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="AA1" s="5" t="s">
+      <x:c r="AA1" s="7" t="s">
         <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:27">
-      <x:c r="A2" s="4" t="s">
+      <x:c r="A2" s="6" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B2" s="4" t="s">
+      <x:c r="B2" s="6" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C2" s="4" t="s">
+      <x:c r="C2" s="6" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D2" s="4" t="s">
+      <x:c r="D2" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E2" s="4" t="n">
+      <x:c r="E2" s="6" t="n">
         <x:v>11008160</x:v>
       </x:c>
-      <x:c r="F2" s="4" t="s">
+      <x:c r="F2" s="6" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="G2" s="4" t="s">
+      <x:c r="G2" s="6" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="H2" s="4" t="s">
+      <x:c r="H2" s="6" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="I2" s="4" t="n">
+      <x:c r="I2" s="6" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J2" s="4" t="n">
+      <x:c r="J2" s="6" t="n">
         <x:v>3900</x:v>
       </x:c>
-      <x:c r="K2" s="4" t="n">
+      <x:c r="K2" s="6" t="n">
         <x:v>312</x:v>
       </x:c>
-      <x:c r="L2" s="4" t="n">
+      <x:c r="L2" s="6" t="n">
         <x:v>4212</x:v>
       </x:c>
-      <x:c r="M2" s="4" t="n">
+      <x:c r="M2" s="6" t="n">
         <x:v>3900</x:v>
       </x:c>
-      <x:c r="N2" s="4" t="n">
+      <x:c r="N2" s="6" t="n">
         <x:v>312</x:v>
       </x:c>
-      <x:c r="O2" s="4" t="n">
+      <x:c r="O2" s="6" t="n">
         <x:v>4212</x:v>
       </x:c>
-      <x:c r="P2" s="4" t="s">
+      <x:c r="P2" s="6" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="Q2" s="4" t="s">
+      <x:c r="Q2" s="6" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="R2" s="4" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="S2" s="4" t="n">
+      <x:c r="R2" s="6" t="n">
+        <x:v>11245</x:v>
+      </x:c>
+      <x:c r="S2" s="6" t="n">
         <x:v>300</x:v>
       </x:c>
-      <x:c r="T2" s="4" t="n">
+      <x:c r="T2" s="6" t="n">
         <x:v>3900</x:v>
       </x:c>
-      <x:c r="U2" s="4" t="s">
+      <x:c r="U2" s="6" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="V2" s="4" t="s"/>
-      <x:c r="W2" s="4" t="s">
+      <x:c r="W2" s="6" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="X2" s="4" t="s"/>
-      <x:c r="Y2" s="4" t="s">
+      <x:c r="Y2" s="6" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="Z2" s="4" t="s"/>
-      <x:c r="AA2" s="4" t="s">
+      <x:c r="Z2" s="9" t="s"/>
+      <x:c r="AA2" s="6" t="s">
         <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:27">
-      <x:c r="A3" s="4" t="s">
+      <x:c r="A3" s="6" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B3" s="4" t="s">
+      <x:c r="B3" s="6" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C3" s="4" t="s">
+      <x:c r="C3" s="6" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D3" s="4" t="s">
+      <x:c r="D3" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E3" s="4" t="n">
+      <x:c r="E3" s="6" t="n">
         <x:v>11008161</x:v>
       </x:c>
-      <x:c r="F3" s="4" t="s">
+      <x:c r="F3" s="6" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="G3" s="4" t="s">
+      <x:c r="G3" s="6" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="H3" s="4" t="s">
+      <x:c r="H3" s="6" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="I3" s="4" t="n">
+      <x:c r="I3" s="6" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J3" s="4" t="n">
+      <x:c r="J3" s="6" t="n">
         <x:v>1800</x:v>
       </x:c>
-      <x:c r="K3" s="4" t="n">
+      <x:c r="K3" s="6" t="n">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="L3" s="4" t="n">
+      <x:c r="L3" s="6" t="n">
         <x:v>1944</x:v>
       </x:c>
-      <x:c r="M3" s="4" t="n">
+      <x:c r="M3" s="6" t="n">
         <x:v>1800</x:v>
       </x:c>
-      <x:c r="N3" s="4" t="n">
+      <x:c r="N3" s="6" t="n">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="O3" s="4" t="n">
+      <x:c r="O3" s="6" t="n">
         <x:v>1944</x:v>
       </x:c>
-      <x:c r="P3" s="4" t="s">
+      <x:c r="P3" s="6" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="Q3" s="4" t="s">
+      <x:c r="Q3" s="6" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="R3" s="4" t="n">
+      <x:c r="R3" s="6" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="S3" s="4" t="n">
+      <x:c r="S3" s="6" t="n">
         <x:v>300</x:v>
       </x:c>
-      <x:c r="T3" s="4" t="n">
+      <x:c r="T3" s="6" t="n">
         <x:v>1800</x:v>
       </x:c>
-      <x:c r="U3" s="4" t="s">
+      <x:c r="U3" s="6" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="V3" s="4" t="s"/>
-      <x:c r="W3" s="4" t="s">
+      <x:c r="V3" s="6" t="s"/>
+      <x:c r="W3" s="6" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="X3" s="4" t="s"/>
-      <x:c r="Y3" s="4" t="s">
+      <x:c r="X3" s="6" t="s"/>
+      <x:c r="Y3" s="6" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="Z3" s="4" t="s"/>
-      <x:c r="AA3" s="4" t="s">
+      <x:c r="Z3" s="9" t="s"/>
+      <x:c r="AA3" s="6" t="s">
         <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:27">
-      <x:c r="A4" s="4" t="s">
+      <x:c r="A4" s="6" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B4" s="4" t="s">
+      <x:c r="B4" s="6" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C4" s="4" t="s">
+      <x:c r="C4" s="6" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D4" s="4" t="s">
+      <x:c r="D4" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E4" s="4" t="n">
+      <x:c r="E4" s="6" t="n">
         <x:v>11008160</x:v>
       </x:c>
-      <x:c r="F4" s="4" t="s">
+      <x:c r="F4" s="6" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="G4" s="4" t="s">
+      <x:c r="G4" s="6" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="H4" s="4" t="s">
+      <x:c r="H4" s="6" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="I4" s="4" t="n">
+      <x:c r="I4" s="6" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J4" s="4" t="n">
+      <x:c r="J4" s="6" t="n">
         <x:v>3900</x:v>
       </x:c>
-      <x:c r="K4" s="4" t="n">
+      <x:c r="K4" s="6" t="n">
         <x:v>312</x:v>
       </x:c>
-      <x:c r="L4" s="4" t="n">
+      <x:c r="L4" s="6" t="n">
         <x:v>4212</x:v>
       </x:c>
-      <x:c r="M4" s="4" t="n">
+      <x:c r="M4" s="6" t="n">
         <x:v>3900</x:v>
       </x:c>
-      <x:c r="N4" s="4" t="n">
+      <x:c r="N4" s="6" t="n">
         <x:v>312</x:v>
       </x:c>
-      <x:c r="O4" s="4" t="n">
+      <x:c r="O4" s="6" t="n">
         <x:v>4212</x:v>
       </x:c>
-      <x:c r="P4" s="4" t="s">
+      <x:c r="P4" s="6" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="Q4" s="4" t="s">
+      <x:c r="Q4" s="6" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="R4" s="4" t="n">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="S4" s="4" t="n">
+      <x:c r="R4" s="6" t="n">
+        <x:v>11245</x:v>
+      </x:c>
+      <x:c r="S4" s="6" t="n">
         <x:v>300</x:v>
       </x:c>
-      <x:c r="T4" s="4" t="n">
+      <x:c r="T4" s="6" t="n">
         <x:v>3900</x:v>
       </x:c>
-      <x:c r="U4" s="4" t="s">
+      <x:c r="U4" s="6" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="V4" s="4" t="s"/>
-      <x:c r="W4" s="4" t="s">
+      <x:c r="V4" s="6" t="s"/>
+      <x:c r="W4" s="6" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="X4" s="4" t="s"/>
-      <x:c r="Y4" s="4" t="s">
+      <x:c r="X4" s="6" t="s"/>
+      <x:c r="Y4" s="6" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="Z4" s="4" t="s"/>
-      <x:c r="AA4" s="4" t="s">
+      <x:c r="Z4" s="9" t="s"/>
+      <x:c r="AA4" s="6" t="s">
         <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:27">
-      <x:c r="A5" s="4" t="s">
+      <x:c r="A5" s="6" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B5" s="4" t="s">
+      <x:c r="B5" s="6" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C5" s="4" t="s">
+      <x:c r="C5" s="6" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="D5" s="4" t="s">
+      <x:c r="D5" s="6" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="E5" s="4" t="n">
+      <x:c r="E5" s="6" t="n">
         <x:v>11008161</x:v>
       </x:c>
-      <x:c r="F5" s="4" t="s">
+      <x:c r="F5" s="6" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="G5" s="4" t="s">
+      <x:c r="G5" s="6" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="H5" s="4" t="s">
+      <x:c r="H5" s="6" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="I5" s="4" t="n">
+      <x:c r="I5" s="6" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="J5" s="4" t="n">
+      <x:c r="J5" s="6" t="n">
         <x:v>1800</x:v>
       </x:c>
-      <x:c r="K5" s="4" t="n">
+      <x:c r="K5" s="6" t="n">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="L5" s="4" t="n">
+      <x:c r="L5" s="6" t="n">
         <x:v>1944</x:v>
       </x:c>
-      <x:c r="M5" s="4" t="n">
+      <x:c r="M5" s="6" t="n">
         <x:v>1800</x:v>
       </x:c>
-      <x:c r="N5" s="4" t="n">
+      <x:c r="N5" s="6" t="n">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="O5" s="4" t="n">
+      <x:c r="O5" s="6" t="n">
         <x:v>1944</x:v>
       </x:c>
-      <x:c r="P5" s="4" t="s">
+      <x:c r="P5" s="6" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="Q5" s="4" t="s">
+      <x:c r="Q5" s="6" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="R5" s="4" t="n">
+      <x:c r="R5" s="6" t="n">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="S5" s="4" t="n">
+      <x:c r="S5" s="6" t="n">
         <x:v>300</x:v>
       </x:c>
-      <x:c r="T5" s="4" t="n">
+      <x:c r="T5" s="6" t="n">
         <x:v>1800</x:v>
       </x:c>
-      <x:c r="U5" s="4" t="s">
+      <x:c r="U5" s="6" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="V5" s="4" t="s"/>
-      <x:c r="W5" s="4" t="s">
+      <x:c r="V5" s="6" t="s"/>
+      <x:c r="W5" s="6" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="X5" s="4" t="s"/>
-      <x:c r="Y5" s="4" t="s">
+      <x:c r="X5" s="6" t="s"/>
+      <x:c r="Y5" s="6" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="Z5" s="4" t="s"/>
-      <x:c r="AA5" s="4" t="s">
+      <x:c r="Z5" s="9" t="s"/>
+      <x:c r="AA5" s="6" t="s">
         <x:v>45</x:v>
       </x:c>
     </x:row>
-    <x:row r="17" spans="1:27">
-      <x:c r="C17" s="4" t="s"/>
+    <x:row r="6" spans="1:27">
+      <x:c r="A6" s="6" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B6" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C6" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D6" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E6" s="6" t="n">
+        <x:v>11008160</x:v>
+      </x:c>
+      <x:c r="F6" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G6" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H6" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I6" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J6" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="K6" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="L6" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="M6" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="N6" s="6" t="n">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="O6" s="6" t="n">
+        <x:v>4212</x:v>
+      </x:c>
+      <x:c r="P6" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q6" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R6" s="6" t="n">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="S6" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T6" s="6" t="n">
+        <x:v>3900</x:v>
+      </x:c>
+      <x:c r="U6" s="6" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="V6" s="6" t="s"/>
+      <x:c r="W6" s="6" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="X6" s="6" t="s"/>
+      <x:c r="Y6" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z6" s="9" t="s"/>
+      <x:c r="AA6" s="6" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:27">
+      <x:c r="A7" s="6" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B7" s="6" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C7" s="6" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D7" s="6" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E7" s="6" t="n">
+        <x:v>11008161</x:v>
+      </x:c>
+      <x:c r="F7" s="6" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="G7" s="6" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="H7" s="6" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="I7" s="6" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J7" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="K7" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="L7" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="M7" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="N7" s="6" t="n">
+        <x:v>144</x:v>
+      </x:c>
+      <x:c r="O7" s="6" t="n">
+        <x:v>1944</x:v>
+      </x:c>
+      <x:c r="P7" s="6" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="Q7" s="6" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="R7" s="6" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="S7" s="6" t="n">
+        <x:v>300</x:v>
+      </x:c>
+      <x:c r="T7" s="6" t="n">
+        <x:v>1800</x:v>
+      </x:c>
+      <x:c r="U7" s="6" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="V7" s="6" t="s"/>
+      <x:c r="W7" s="6" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="X7" s="6" t="s"/>
+      <x:c r="Y7" s="6" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="Z7" s="9" t="s"/>
+      <x:c r="AA7" s="6" t="s">
+        <x:v>47</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
